--- a/examples/sources/data/unsolved/to_schedule/2018-11-29.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2018-11-29.xlsx
@@ -2374,7 +2374,7 @@
         <v>1</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O35" s="2">
         <v>43433</v>
@@ -4849,7 +4849,7 @@
         <v>1</v>
       </c>
       <c r="N89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O89" s="2">
         <v>43433</v>
@@ -5215,7 +5215,7 @@
         <v>0</v>
       </c>
       <c r="M98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N98">
         <v>1</v>
@@ -5450,7 +5450,7 @@
         <v>1</v>
       </c>
       <c r="N103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O103" s="2">
         <v>43433</v>
@@ -5693,7 +5693,7 @@
         <v>0</v>
       </c>
       <c r="M109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N109">
         <v>1</v>
@@ -5734,7 +5734,7 @@
         <v>0</v>
       </c>
       <c r="M110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N110">
         <v>1</v>
@@ -6153,7 +6153,7 @@
         <v>0</v>
       </c>
       <c r="M120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N120">
         <v>1</v>
@@ -6326,7 +6326,7 @@
         <v>0</v>
       </c>
       <c r="M124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N124">
         <v>1</v>
@@ -6461,7 +6461,7 @@
         <v>1</v>
       </c>
       <c r="N127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O127" s="2">
         <v>43433</v>
@@ -6499,7 +6499,7 @@
         <v>0</v>
       </c>
       <c r="M128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N128">
         <v>1</v>
@@ -7628,7 +7628,7 @@
         <v>0</v>
       </c>
       <c r="M154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N154">
         <v>1</v>
@@ -7672,7 +7672,7 @@
         <v>1</v>
       </c>
       <c r="N155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O155" s="2">
         <v>43433</v>
@@ -7710,7 +7710,7 @@
         <v>0</v>
       </c>
       <c r="M156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N156">
         <v>1</v>
